--- a/data/TopOnePercent/East China Normal University.xlsx
+++ b/data/TopOnePercent/East China Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>4216.0</v>
+        <v>4055.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>87557.0</v>
+        <v>84477.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>20.77</v>
+        <v>20.83</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>1448.0</v>
+        <v>1420.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>27796.0</v>
+        <v>27536.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>19.2</v>
+        <v>19.39</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,16 +228,16 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>2650.0</v>
+        <v>2471.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>27149.0</v>
+        <v>24721.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>10.24</v>
+        <v>10.0</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
@@ -250,16 +250,16 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>1236.0</v>
+        <v>1228.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>16259.0</v>
+        <v>15564.0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>13.15</v>
+        <v>12.67</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="11">
@@ -272,16 +272,16 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>919.0</v>
+        <v>912.0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>12317.0</v>
+        <v>12189.0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>13.4</v>
+        <v>13.37</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="12">
@@ -294,16 +294,16 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>1018.0</v>
+        <v>1014.0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>10404.0</v>
+        <v>10104.0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>10.22</v>
+        <v>9.96</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="13">
@@ -316,16 +316,16 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>624.0</v>
+        <v>596.0</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>8919.0</v>
+        <v>8140.0</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>14.29</v>
+        <v>13.66</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
@@ -338,13 +338,13 @@
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>896.0</v>
+        <v>874.0</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>8298.0</v>
+        <v>7857.0</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>9.26</v>
+        <v>8.99</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>5.0</v>
@@ -360,16 +360,16 @@
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>1749.0</v>
+        <v>1673.0</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>7699.0</v>
+        <v>7214.0</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>4.4</v>
+        <v>4.31</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="16">
@@ -382,13 +382,13 @@
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>442.0</v>
+        <v>435.0</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>6970.0</v>
+        <v>6433.0</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>15.77</v>
+        <v>14.79</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>6.0</v>
@@ -404,10 +404,10 @@
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>694.0</v>
+        <v>692.0</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>5169.0</v>
+        <v>5158.0</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>7.45</v>
@@ -426,16 +426,16 @@
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>663.0</v>
+        <v>688.0</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>4141.0</v>
+        <v>4275.0</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>6.25</v>
+        <v>6.21</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="19">
@@ -448,22 +448,22 @@
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>18617.0</v>
+        <v>18104.0</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>248642.0</v>
+        <v>238410.0</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>13.36</v>
+        <v>13.17</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>278.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
